--- a/docs/画面項目定義書/virtual_machine_management/mo_virtual_machine_create.xlsx
+++ b/docs/画面項目定義書/virtual_machine_management/mo_virtual_machine_create.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\virtual_machine_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F1DF2C-5872-40D0-8FB4-3B2111EDB315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDF6AE3-CF9D-4D72-89A9-9F4E2EBC86B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="てんぷら" sheetId="1" r:id="rId1"/>
+    <sheet name="シート１" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
   <si>
     <t>日本工学院</t>
   </si>
@@ -197,10 +197,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ストレージタイプ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>ストレージバックアップ</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -288,17 +284,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>仮想マシンタイプエンティティより</t>
-    <rPh sb="0" eb="2">
-      <t>カソウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ネットワークエンティティより</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>OSイメージエンティティより</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -314,19 +299,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>仮想マシンタイプエンティティから取得し、表示</t>
-    <rPh sb="0" eb="2">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
       <t>ナマエ</t>
@@ -338,13 +310,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>バックアップ選択</t>
-    <rPh sb="6" eb="8">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>追加</t>
     <rPh sb="0" eb="2">
       <t>ツイカ</t>
@@ -371,20 +336,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>グループ名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>説明</t>
-    <rPh sb="0" eb="2">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>セキュリティグループエンティティより</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -477,6 +428,110 @@
     </rPh>
     <rPh sb="13" eb="16">
       <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ストレージプール</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>セキュリティグループ追加ボタン</t>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>非表示</t>
+    <rPh sb="0" eb="3">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>マシンを作成</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>インスタンスタイプエンティティから取得し、表示</t>
+    <rPh sb="17" eb="19">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>インスタンスタイプエンティティより</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仮想ネットワークエンティティより</t>
+    <rPh sb="0" eb="2">
+      <t>カソウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>バックアップ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>バックアップエンティティより取得し、プルダウンメニュー要素として適応</t>
+    <rPh sb="14" eb="16">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>テキオウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ストレージプールエンティティより取得し、プルダウンメニュー要素として適応</t>
+    <rPh sb="16" eb="18">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>テキオウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>セキュリティグループエンティティから取得し、プルダウンメニュー要素として適応</t>
+    <rPh sb="18" eb="20">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>テキオウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>×ボタン</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>virtual_machine_dashboardへ遷移</t>
+    <rPh sb="26" eb="28">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -788,7 +843,7 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -892,6 +947,18 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1045,13 +1112,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1429,23 +1496,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0D6EF-4038-413F-A2F1-0B97FD7B8E5A}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="G30" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="39.625" customWidth="1"/>
+    <col min="6" max="6" width="39.58203125" customWidth="1"/>
     <col min="7" max="7" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1456,7 +1523,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1465,7 +1532,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1474,7 +1541,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1483,7 +1550,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>1</v>
       </c>
@@ -1496,7 +1563,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="39" t="s">
         <v>10</v>
       </c>
@@ -1509,7 +1576,7 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2"/>
       <c r="B7" s="10"/>
       <c r="C7" s="2"/>
@@ -1518,7 +1585,7 @@
       <c r="F7" s="20"/>
       <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1541,28 +1608,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
       <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="31"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="6"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
       <c r="B10" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="29" t="s">
@@ -1571,26 +1642,30 @@
       <c r="F10" s="32"/>
       <c r="G10" s="36"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="6"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5">
+        <v>3</v>
+      </c>
       <c r="B11" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="29"/>
       <c r="F11" s="32"/>
       <c r="G11" s="36"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="6">
+        <v>4</v>
+      </c>
       <c r="B12" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="29" t="s">
@@ -1599,30 +1674,34 @@
       <c r="F12" s="32"/>
       <c r="G12" s="36"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="6"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5">
+        <v>5</v>
+      </c>
       <c r="B13" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="29" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="6">
+        <v>6</v>
+      </c>
       <c r="B14" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="29" t="s">
@@ -1631,28 +1710,32 @@
       <c r="F14" s="32"/>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="5"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5">
+        <v>7</v>
+      </c>
       <c r="B15" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="29" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="36"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="6"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="6">
+        <v>8</v>
+      </c>
       <c r="B16" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="29" t="s">
@@ -1661,28 +1744,32 @@
       <c r="F16" s="32"/>
       <c r="G16" s="36"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="5"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="5">
+        <v>9</v>
+      </c>
       <c r="B17" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="29" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="36"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="6"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="6">
+        <v>10</v>
+      </c>
       <c r="B18" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="29" t="s">
@@ -1691,39 +1778,45 @@
       <c r="F18" s="32"/>
       <c r="G18" s="36"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="6"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="5">
+        <v>11</v>
+      </c>
       <c r="B19" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="29"/>
       <c r="F19" s="32"/>
       <c r="G19" s="36"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="6"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="6">
+        <v>12</v>
+      </c>
       <c r="B20" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="29"/>
       <c r="F20" s="32"/>
       <c r="G20" s="36"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="6"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="5">
+        <v>13</v>
+      </c>
       <c r="B21" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="29" t="s">
@@ -1732,28 +1825,32 @@
       <c r="F21" s="32"/>
       <c r="G21" s="36"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="6"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="6">
+        <v>14</v>
+      </c>
       <c r="B22" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="36"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="6"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="5">
+        <v>15</v>
+      </c>
       <c r="B23" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="29" t="s">
@@ -1762,254 +1859,321 @@
       <c r="F23" s="32"/>
       <c r="G23" s="36"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="6"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="6">
+        <v>16</v>
+      </c>
       <c r="B24" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="29" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F24" s="32"/>
       <c r="G24" s="36"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="6"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="5">
+        <v>17</v>
+      </c>
       <c r="B25" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F25" s="32"/>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="6"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="6">
+        <v>18</v>
+      </c>
       <c r="B26" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F26" s="32"/>
       <c r="G26" s="36"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="6"/>
+    <row r="27" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="5">
+        <v>19</v>
+      </c>
       <c r="B27" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="29" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F27" s="32"/>
-      <c r="G27" s="36"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="6"/>
+      <c r="G27" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="6">
+        <v>20</v>
+      </c>
       <c r="B28" s="13" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="32"/>
+      <c r="G28" s="36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="5">
+        <v>21</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="32"/>
-      <c r="G28" s="36"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="6"/>
-      <c r="B29" s="13" t="s">
-        <v>32</v>
-      </c>
       <c r="C29" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="29" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="F29" s="32"/>
       <c r="G29" s="36"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="6"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="6">
+        <v>22</v>
+      </c>
       <c r="B30" s="13" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="29" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F30" s="32"/>
       <c r="G30" s="36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="6"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="5">
+        <v>23</v>
+      </c>
       <c r="B31" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F31" s="32"/>
       <c r="G31" s="36"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="6"/>
+    <row r="32" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="6">
+        <v>24</v>
+      </c>
       <c r="B32" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="29" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F32" s="32"/>
-      <c r="G32" s="36"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="6"/>
+      <c r="G32" s="36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="5">
+        <v>25</v>
+      </c>
       <c r="B33" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="29" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F33" s="32"/>
-      <c r="G33" s="36"/>
-    </row>
-    <row r="34" spans="1:7" ht="24" x14ac:dyDescent="0.4">
-      <c r="A34" s="6"/>
+      <c r="G33" s="36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="6">
+        <v>26</v>
+      </c>
       <c r="B34" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="29" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="24" x14ac:dyDescent="0.4">
-      <c r="A35" s="6"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="5">
+        <v>27</v>
+      </c>
       <c r="B35" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D35" s="22"/>
-      <c r="E35" s="29"/>
+      <c r="E35" s="29" t="s">
+        <v>51</v>
+      </c>
       <c r="F35" s="32"/>
       <c r="G35" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A36" s="6"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="6">
+        <v>28</v>
+      </c>
       <c r="B36" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D36" s="22"/>
-      <c r="E36" s="29"/>
+      <c r="E36" s="29" t="s">
+        <v>65</v>
+      </c>
       <c r="F36" s="32"/>
       <c r="G36" s="36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A37" s="6"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="5">
+        <v>29</v>
+      </c>
       <c r="B37" s="13" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="22"/>
-      <c r="E37" s="29"/>
+      <c r="E37" s="29" t="s">
+        <v>64</v>
+      </c>
       <c r="F37" s="36"/>
       <c r="G37" s="36"/>
     </row>
-    <row r="38" spans="1:7" ht="24" x14ac:dyDescent="0.4">
-      <c r="A38" s="6"/>
+    <row r="38" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="6">
+        <v>30</v>
+      </c>
       <c r="B38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="22"/>
+      <c r="E38" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="29"/>
       <c r="F38" s="36"/>
       <c r="G38" s="36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A39" s="6"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="5">
+        <v>31</v>
+      </c>
       <c r="B39" s="13" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D39" s="22"/>
-      <c r="E39" s="29"/>
+      <c r="E39" s="29" t="s">
+        <v>64</v>
+      </c>
       <c r="F39" s="36"/>
       <c r="G39" s="36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="41">
+        <v>32</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" s="44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/画面項目定義書/virtual_machine_management/mo_virtual_machine_create.xlsx
+++ b/docs/画面項目定義書/virtual_machine_management/mo_virtual_machine_create.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\virtual_machine_management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Kamata-Cloud-Infrastructure\docs\画面項目定義書\virtual_machine_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDF6AE3-CF9D-4D72-89A9-9F4E2EBC86B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D9B31D-00D9-4DE6-A973-6B1725432F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -394,31 +394,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>押下時、仮想マシンを作成して確認ポップアップを非表示にし仮想マシンダッシュボードへ遷移</t>
-    <rPh sb="0" eb="3">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>ヒヒョウジ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>押下時、確認ポップアップを非表示</t>
     <rPh sb="0" eb="3">
       <t>オウカジ</t>
@@ -529,8 +504,30 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>virtual_machine_dashboardへ遷移</t>
-    <rPh sb="26" eb="28">
+    <t>virtual_machine_dashboard.htmlへ遷移</t>
+    <rPh sb="31" eb="33">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>押下時、仮想マシンを作成して確認ポップアップを非表示にしvirtual_machine_dashboard.htmlへ遷移</t>
+    <rPh sb="0" eb="3">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
@@ -843,7 +840,7 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -939,6 +936,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -947,18 +947,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1498,11 +1486,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0D6EF-4038-413F-A2F1-0B97FD7B8E5A}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G30" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="1.1000000000000001"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
@@ -1512,7 +1500,7 @@
     <col min="7" max="7" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1523,7 +1511,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1532,7 +1520,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A3" s="3"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1541,7 +1529,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1550,11 +1538,11 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="14" t="s">
         <v>2</v>
       </c>
@@ -1563,11 +1551,11 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="1.25">
+      <c r="A6" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="15" t="s">
         <v>11</v>
       </c>
@@ -1576,7 +1564,7 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A7" s="2"/>
       <c r="B7" s="10"/>
       <c r="C7" s="2"/>
@@ -1585,7 +1573,7 @@
       <c r="F7" s="20"/>
       <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1608,7 +1596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -1625,7 +1613,7 @@
       <c r="F9" s="31"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -1642,7 +1630,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="36"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A11" s="5">
         <v>3</v>
       </c>
@@ -1657,7 +1645,7 @@
       <c r="F11" s="32"/>
       <c r="G11" s="36"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A12" s="6">
         <v>4</v>
       </c>
@@ -1674,7 +1662,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="36"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A13" s="5">
         <v>5</v>
       </c>
@@ -1686,14 +1674,14 @@
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A14" s="6">
         <v>6</v>
       </c>
@@ -1710,7 +1698,7 @@
       <c r="F14" s="32"/>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A15" s="5">
         <v>7</v>
       </c>
@@ -1722,12 +1710,12 @@
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="36"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A16" s="6">
         <v>8</v>
       </c>
@@ -1744,7 +1732,7 @@
       <c r="F16" s="32"/>
       <c r="G16" s="36"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A17" s="5">
         <v>9</v>
       </c>
@@ -1756,12 +1744,12 @@
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="36"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A18" s="6">
         <v>10</v>
       </c>
@@ -1778,7 +1766,7 @@
       <c r="F18" s="32"/>
       <c r="G18" s="36"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A19" s="5">
         <v>11</v>
       </c>
@@ -1793,7 +1781,7 @@
       <c r="F19" s="32"/>
       <c r="G19" s="36"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A20" s="6">
         <v>12</v>
       </c>
@@ -1808,7 +1796,7 @@
       <c r="F20" s="32"/>
       <c r="G20" s="36"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A21" s="5">
         <v>13</v>
       </c>
@@ -1825,7 +1813,7 @@
       <c r="F21" s="32"/>
       <c r="G21" s="36"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A22" s="6">
         <v>14</v>
       </c>
@@ -1842,7 +1830,7 @@
       <c r="F22" s="32"/>
       <c r="G22" s="36"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A23" s="5">
         <v>15</v>
       </c>
@@ -1859,7 +1847,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="36"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A24" s="6">
         <v>16</v>
       </c>
@@ -1876,7 +1864,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="36"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A25" s="5">
         <v>17</v>
       </c>
@@ -1893,7 +1881,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A26" s="6">
         <v>18</v>
       </c>
@@ -1910,7 +1898,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="36"/>
     </row>
-    <row r="27" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" ht="24.5" x14ac:dyDescent="1.1000000000000001">
       <c r="A27" s="5">
         <v>19</v>
       </c>
@@ -1926,29 +1914,29 @@
       </c>
       <c r="F27" s="32"/>
       <c r="G27" s="36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="24.5" x14ac:dyDescent="1.1000000000000001">
       <c r="A28" s="6">
         <v>20</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>44</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F28" s="32"/>
       <c r="G28" s="36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A29" s="5">
         <v>21</v>
       </c>
@@ -1960,17 +1948,17 @@
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F29" s="32"/>
       <c r="G29" s="36"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A30" s="6">
         <v>22</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>40</v>
@@ -1984,7 +1972,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A31" s="5">
         <v>23</v>
       </c>
@@ -2001,7 +1989,7 @@
       <c r="F31" s="32"/>
       <c r="G31" s="36"/>
     </row>
-    <row r="32" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:7" ht="24.5" x14ac:dyDescent="1.1000000000000001">
       <c r="A32" s="6">
         <v>24</v>
       </c>
@@ -2020,7 +2008,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" ht="24.5" x14ac:dyDescent="1.1000000000000001">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -2039,7 +2027,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7" ht="24.5" x14ac:dyDescent="1.1000000000000001">
       <c r="A34" s="6">
         <v>26</v>
       </c>
@@ -2055,10 +2043,10 @@
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="24.5" x14ac:dyDescent="1.1000000000000001">
       <c r="A35" s="5">
         <v>27</v>
       </c>
@@ -2077,7 +2065,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A36" s="6">
         <v>28</v>
       </c>
@@ -2089,14 +2077,14 @@
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F36" s="32"/>
       <c r="G36" s="36" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A37" s="5">
         <v>29</v>
       </c>
@@ -2106,12 +2094,12 @@
       <c r="C37" s="17"/>
       <c r="D37" s="22"/>
       <c r="E37" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F37" s="36"/>
       <c r="G37" s="36"/>
     </row>
-    <row r="38" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" ht="24.5" x14ac:dyDescent="1.1000000000000001">
       <c r="A38" s="6">
         <v>30</v>
       </c>
@@ -2123,14 +2111,14 @@
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F38" s="36"/>
       <c r="G38" s="36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A39" s="5">
         <v>31</v>
       </c>
@@ -2142,31 +2130,31 @@
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F39" s="36"/>
       <c r="G39" s="36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="41">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+      <c r="A40" s="5">
         <v>32</v>
       </c>
-      <c r="B40" s="42" t="s">
-        <v>73</v>
+      <c r="B40" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="43" t="s">
+      <c r="E40" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="G40" s="44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
